--- a/tests/resources/test_risk_master_2_2020.xlsx
+++ b/tests/resources/test_risk_master_2_2020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="134">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -416,6 +416,12 @@
   </si>
   <si>
     <t xml:space="preserve">Re-baseline HMT benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DfT Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPDC approval point</t>
   </si>
 </sst>
 </file>
@@ -531,7 +537,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D98" activeCellId="0" sqref="D98"/>
+      <selection pane="bottomLeft" activeCell="A96" activeCellId="0" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1812,6 +1818,16 @@
         <v>49</v>
       </c>
     </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/tests/resources/test_risk_master_2_2020.xlsx
+++ b/tests/resources/test_risk_master_2_2020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="140">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -421,7 +421,25 @@
     <t xml:space="preserve">DfT Group</t>
   </si>
   <si>
+    <t xml:space="preserve">Rail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSMRPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDP</t>
+  </si>
+  <si>
     <t xml:space="preserve">IPDC approval point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBC</t>
   </si>
 </sst>
 </file>
@@ -537,7 +555,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A96" activeCellId="0" sqref="A96"/>
+      <selection pane="bottomLeft" activeCell="D107" activeCellId="0" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1822,10 +1840,40 @@
       <c r="A94" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="B94" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/test_risk_master_2_2020.xlsx
+++ b/tests/resources/test_risk_master_2_2020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="141">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t xml:space="preserve">OBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMPP - IPA ID Number</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D107" activeCellId="0" sqref="D107"/>
+      <selection pane="bottomLeft" activeCell="A96" activeCellId="0" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1876,6 +1879,11 @@
         <v>139</v>
       </c>
     </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
